--- a/models/calculation engines/cbix2/outputs/panamax/freight_calcs_to_qingdao_first_leg/final_costing_up_for_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/panamax/freight_calcs_to_qingdao_first_leg/final_costing_up_for_leg.xlsx
@@ -3695,7 +3695,7 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>9265.191428571428</v>
+        <v>9265.191428571427</v>
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
